--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PRE\worklog\Project Process library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PRE\gitlibrary\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 08-09" sheetId="5" r:id="rId1"/>
+    <sheet name="Week 12-13" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 08-09'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 12-13'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -635,6 +635,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -653,12 +659,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -948,7 +948,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -976,8 +976,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -1031,10 +1031,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="47">
         <v>2016</v>
       </c>
-      <c r="M3" s="46"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1045,16 +1045,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="47">
+      <c r="G4" s="49">
         <f>DATE(L3,I3,1)</f>
         <v>42401</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="44">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="41"/>
@@ -1209,7 +1209,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1318,7 +1318,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="44">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1353,7 +1353,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="44">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="44">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1447,14 +1447,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="44">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1483,14 +1483,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="44">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1519,14 +1519,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="44">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1555,14 +1555,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="44">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1608,14 +1608,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="44">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1649,14 +1649,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="44">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1690,14 +1690,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="12"/>
       <c r="D55" s="42"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="44">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1726,14 +1726,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="12"/>
       <c r="D60" s="43"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="44">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1762,14 +1762,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="44">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1798,14 +1798,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="44">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1834,25 +1834,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -1867,6 +1862,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week 12-13" sheetId="5" r:id="rId1"/>
+    <sheet name="Week 14-15" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 12-13'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 14-15'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
   <si>
     <t>MORNING</t>
   </si>
@@ -94,6 +96,26 @@
   </si>
   <si>
     <t>« Every Monday</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>清明节</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>年假</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨银行POC事宜</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅实施方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔日日顺司法鉴定事宜</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -635,12 +657,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -659,6 +675,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -947,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -976,8 +998,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -1025,16 +1047,16 @@
         <v>6</v>
       </c>
       <c r="I3" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="31"/>
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
-        <v>2016</v>
-      </c>
-      <c r="M3" s="48"/>
+      <c r="L3" s="45">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="46"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1045,16 +1067,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="49">
+      <c r="G4" s="47">
         <f>DATE(L3,I3,1)</f>
-        <v>42401</v>
-      </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+        <v>42795</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1104,36 +1126,36 @@
         <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
         <v/>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="35" t="str">
         <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v>42401</v>
-      </c>
-      <c r="I6" s="35">
+        <v/>
+      </c>
+      <c r="I6" s="35" t="str">
         <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v>42402</v>
+        <v/>
       </c>
       <c r="J6" s="35">
         <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v>42403</v>
+        <v>42795</v>
       </c>
       <c r="K6" s="35">
         <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42404</v>
+        <v>42796</v>
       </c>
       <c r="L6" s="35">
         <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42405</v>
+        <v>42797</v>
       </c>
       <c r="M6" s="35">
         <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42406</v>
+        <v>42798</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="44">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1142,105 +1164,105 @@
       <c r="E7" s="41"/>
       <c r="G7" s="35">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42407</v>
+        <v>42799</v>
       </c>
       <c r="H7" s="35">
         <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42408</v>
+        <v>42800</v>
       </c>
       <c r="I7" s="35">
         <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
-        <v>42409</v>
+        <v>42801</v>
       </c>
       <c r="J7" s="35">
         <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
-        <v>42410</v>
+        <v>42802</v>
       </c>
       <c r="K7" s="35">
         <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
-        <v>42411</v>
+        <v>42803</v>
       </c>
       <c r="L7" s="35">
         <f t="shared" si="0"/>
-        <v>42412</v>
+        <v>42804</v>
       </c>
       <c r="M7" s="35">
         <f t="shared" si="0"/>
-        <v>42413</v>
+        <v>42805</v>
       </c>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="41"/>
       <c r="G8" s="35">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42414</v>
+        <v>42806</v>
       </c>
       <c r="H8" s="35">
         <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
-        <v>42415</v>
+        <v>42807</v>
       </c>
       <c r="I8" s="35">
         <f t="shared" si="2"/>
-        <v>42416</v>
+        <v>42808</v>
       </c>
       <c r="J8" s="35">
         <f t="shared" si="2"/>
-        <v>42417</v>
+        <v>42809</v>
       </c>
       <c r="K8" s="35">
         <f t="shared" si="2"/>
-        <v>42418</v>
+        <v>42810</v>
       </c>
       <c r="L8" s="35">
         <f t="shared" si="2"/>
-        <v>42419</v>
+        <v>42811</v>
       </c>
       <c r="M8" s="35">
         <f t="shared" si="2"/>
-        <v>42420</v>
+        <v>42812</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="45"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
       <c r="F9" s="1"/>
       <c r="G9" s="35">
         <f t="shared" si="1"/>
-        <v>42421</v>
+        <v>42813</v>
       </c>
       <c r="H9" s="35">
         <f t="shared" si="2"/>
-        <v>42422</v>
+        <v>42814</v>
       </c>
       <c r="I9" s="35">
         <f t="shared" si="2"/>
-        <v>42423</v>
+        <v>42815</v>
       </c>
       <c r="J9" s="35">
         <f t="shared" si="2"/>
-        <v>42424</v>
+        <v>42816</v>
       </c>
       <c r="K9" s="35">
         <f t="shared" si="2"/>
-        <v>42425</v>
+        <v>42817</v>
       </c>
       <c r="L9" s="35">
         <f t="shared" si="2"/>
-        <v>42426</v>
+        <v>42818</v>
       </c>
       <c r="M9" s="35">
         <f t="shared" si="2"/>
-        <v>42427</v>
+        <v>42819</v>
       </c>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
@@ -1249,27 +1271,27 @@
       <c r="B10" s="3"/>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
-        <v>42428</v>
+        <v>42820</v>
       </c>
       <c r="H10" s="35">
         <f t="shared" si="2"/>
-        <v>42429</v>
-      </c>
-      <c r="I10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>42821</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42822</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42823</v>
+      </c>
+      <c r="K10" s="35">
+        <f t="shared" si="2"/>
+        <v>42824</v>
+      </c>
+      <c r="L10" s="35">
+        <f t="shared" si="2"/>
+        <v>42825</v>
       </c>
       <c r="M10" s="35" t="str">
         <f t="shared" si="2"/>
@@ -1318,7 +1340,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1336,7 +1358,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1353,7 +1375,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="45"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1399,7 +1421,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="44">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1410,7 +1432,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1418,7 +1440,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1437,7 +1459,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="44">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1447,14 +1469,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1473,7 +1495,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="44">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1483,14 +1505,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1509,7 +1531,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="44">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1519,14 +1541,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="44"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1545,7 +1567,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="44">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1555,14 +1577,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="45"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1598,7 +1620,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="44">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1608,14 +1630,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="44"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="45"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1639,7 +1661,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="44">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1649,14 +1671,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="44"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1680,7 +1702,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="44">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1690,14 +1712,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="44"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="42"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="45"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1716,7 +1738,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="44">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1726,14 +1748,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="44"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="43"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="45"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1752,7 +1774,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="44">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1762,14 +1784,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="44"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="45"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1788,7 +1810,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="44">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1798,14 +1820,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="44"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="45"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1824,7 +1846,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="44">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1834,20 +1856,25 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="44"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -1862,11 +1889,1001 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42828</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42828</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>14</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>4</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="45">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="46"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="47">
+        <f>DATE(L3,I3,1)</f>
+        <v>42826</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42828</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="35" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="35" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="35" t="str">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v/>
+      </c>
+      <c r="L6" s="35" t="str">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v/>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42826</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="50">
+        <f>E2</f>
+        <v>42828</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42827</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42828</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42829</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42830</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42831</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42832</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42833</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="41"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42834</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42835</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42836</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42837</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42838</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42839</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42840</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="51"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42841</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42842</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42843</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42844</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42845</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42846</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42847</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42848</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42849</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42850</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42851</v>
+      </c>
+      <c r="K10" s="35">
+        <f t="shared" si="2"/>
+        <v>42852</v>
+      </c>
+      <c r="L10" s="35">
+        <f t="shared" si="2"/>
+        <v>42853</v>
+      </c>
+      <c r="M10" s="35">
+        <f t="shared" si="2"/>
+        <v>42854</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42829</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="35">
+        <f t="shared" si="1"/>
+        <v>42855</v>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="50">
+        <f>B7+1</f>
+        <v>42829</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="50"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="51"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42830</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="50">
+        <f>B12+1</f>
+        <v>42830</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42831</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="50">
+        <f>B17+1</f>
+        <v>42831</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42832</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="50">
+        <f>B22+1</f>
+        <v>42832</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42833</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="50">
+        <f>B27+1</f>
+        <v>42833</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42834</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="50">
+        <f>B32+1</f>
+        <v>42834</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42835</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42835</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="50">
+        <f>B37+1</f>
+        <v>42835</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42836</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="50">
+        <f>B44+1</f>
+        <v>42836</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42837</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="50">
+        <f>B49+1</f>
+        <v>42837</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42838</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="50">
+        <f>B54+1</f>
+        <v>42838</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42839</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="50">
+        <f>B59+1</f>
+        <v>42839</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42840</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="50">
+        <f>B64+1</f>
+        <v>42840</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42841</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="50">
+        <f>B69+1</f>
+        <v>42841</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
   <si>
     <t>MORNING</t>
   </si>
@@ -123,7 +123,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>南京</t>
+    <t>南京华泰证券交流</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -665,6 +665,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,12 +689,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1006,8 +1006,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -1061,10 +1061,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="47">
         <v>2017</v>
       </c>
-      <c r="M3" s="46"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1075,16 +1075,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="47">
+      <c r="G4" s="49">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="44">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="41"/>
@@ -1239,7 +1239,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1348,7 +1348,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="44">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1366,7 +1366,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1383,7 +1383,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="44">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="44">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1477,14 +1477,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="44">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1513,14 +1513,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="44">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1549,14 +1549,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="44">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1585,14 +1585,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="44">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1638,14 +1638,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="44">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1679,14 +1679,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="44">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1720,14 +1720,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="12"/>
       <c r="D55" s="42"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="44">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1756,14 +1756,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="12"/>
       <c r="D60" s="43"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="44">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1792,14 +1792,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="44">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1828,14 +1828,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="44">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1864,25 +1864,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -1897,6 +1892,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1912,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1941,8 +1941,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -1996,10 +1996,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="47">
         <v>2017</v>
       </c>
-      <c r="M3" s="46"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2010,16 +2010,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="47">
+      <c r="G4" s="49">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="44">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="41"/>
@@ -2180,7 +2180,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2289,7 +2289,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="44">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2330,7 +2330,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="44">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="44">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -2436,14 +2436,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="44">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -2478,14 +2478,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="44">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -2520,14 +2520,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="44">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -2562,14 +2562,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="44">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -2621,14 +2621,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="44">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -2668,16 +2668,20 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="15"/>
+      <c r="D50" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2701,7 +2705,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="44">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -2717,14 +2721,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="12"/>
       <c r="D55" s="42"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2743,7 +2747,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="44">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -2759,14 +2763,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="12"/>
       <c r="D60" s="43"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2785,7 +2789,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="44">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -2801,14 +2805,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2827,7 +2831,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="44">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -2837,14 +2841,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2863,7 +2867,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="44">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -2873,27 +2877,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2906,6 +2903,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -5,19 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PRE\gitlibrary\Project-Process-library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRE\gitlibrary\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week 12-13" sheetId="5" r:id="rId1"/>
     <sheet name="Week 14-15" sheetId="6" r:id="rId2"/>
+    <sheet name="Week 16-17" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 12-13'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 14-15'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 16-17'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="34">
   <si>
     <t>MORNING</t>
   </si>
@@ -124,6 +126,30 @@
   </si>
   <si>
     <t>南京华泰证券交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发部无纸化项目需求讨论</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公安一所日日顺无纸化签到司法鉴定交流沟通</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫做银行优质员工贷实施工作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商全程电子化解决方案编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商全程电子化解决方案评审</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰电子报聘解决方案编制</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -665,12 +691,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,6 +709,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1006,8 +1032,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -1061,10 +1087,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="45">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1075,16 +1101,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="49">
+      <c r="G4" s="47">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1163,7 +1189,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="44">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1203,7 +1229,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="41"/>
@@ -1239,7 +1265,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="45"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1348,7 +1374,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1366,7 +1392,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1383,7 +1409,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="45"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1429,7 +1455,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="44">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1440,7 +1466,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1448,7 +1474,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1467,7 +1493,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="44">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1477,14 +1503,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1503,7 +1529,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="44">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1513,14 +1539,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1539,7 +1565,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="44">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1549,14 +1575,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="44"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1575,7 +1601,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="44">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1585,14 +1611,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="45"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1628,7 +1654,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="44">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1638,14 +1664,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="44"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="45"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1669,7 +1695,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="44">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1679,14 +1705,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="44"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1710,7 +1736,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="44">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1720,14 +1746,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="44"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="42"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="45"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1746,7 +1772,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="44">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1756,14 +1782,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="44"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="43"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="45"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1782,7 +1808,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="44">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1792,14 +1818,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="44"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="45"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1818,7 +1844,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="44">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1828,14 +1854,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="44"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="45"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1854,7 +1880,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="44">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1864,20 +1890,25 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="44"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -1892,11 +1923,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1912,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1941,8 +1967,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -1996,10 +2022,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="45">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2010,16 +2036,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="49">
+      <c r="G4" s="47">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2098,7 +2124,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="44">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -2144,7 +2170,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="41"/>
@@ -2180,7 +2206,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="45"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2289,7 +2315,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -2313,7 +2339,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2330,7 +2356,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="45"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2376,7 +2402,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="44">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -2393,7 +2419,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2401,7 +2427,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2420,7 +2446,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="44">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -2436,14 +2462,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2462,7 +2488,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="44">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -2478,14 +2504,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2504,7 +2530,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="44">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -2520,14 +2546,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="44"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2546,7 +2572,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="44">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -2562,14 +2588,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="45"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2605,7 +2631,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="44">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -2621,14 +2647,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="44"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="45"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2652,7 +2678,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="44">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -2668,7 +2694,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="44"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="39" t="s">
         <v>27</v>
       </c>
@@ -2681,7 +2707,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2705,7 +2731,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="44">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -2721,14 +2747,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="44"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="42"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="45"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2747,7 +2773,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="44">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -2763,14 +2789,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="44"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="43"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="45"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2789,7 +2815,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="44">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -2805,14 +2831,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="44"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="45"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2831,7 +2857,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="44">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -2841,14 +2867,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="44"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="45"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2867,7 +2893,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="44">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -2877,20 +2903,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="44"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2903,6 +2936,982 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42842</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42842</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>16</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>4</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="45">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="46"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="47">
+        <f>DATE(L3,I3,1)</f>
+        <v>42826</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42842</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="35" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="35" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="35" t="str">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v/>
+      </c>
+      <c r="L6" s="35" t="str">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v/>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42826</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="50">
+        <f>E2</f>
+        <v>42842</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42827</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42828</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42829</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42830</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42831</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42832</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42833</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="41"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42834</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42835</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42836</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42837</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42838</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42839</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42840</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="51"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42841</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42842</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42843</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42844</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42845</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42846</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42847</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42848</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42849</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42850</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42851</v>
+      </c>
+      <c r="K10" s="35">
+        <f t="shared" si="2"/>
+        <v>42852</v>
+      </c>
+      <c r="L10" s="35">
+        <f t="shared" si="2"/>
+        <v>42853</v>
+      </c>
+      <c r="M10" s="35">
+        <f t="shared" si="2"/>
+        <v>42854</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42843</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="35">
+        <f t="shared" si="1"/>
+        <v>42855</v>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="50">
+        <f>B7+1</f>
+        <v>42843</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="50"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="51"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42844</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="50">
+        <f>B12+1</f>
+        <v>42844</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42845</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="50">
+        <f>B17+1</f>
+        <v>42845</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42846</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="50">
+        <f>B22+1</f>
+        <v>42846</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42847</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="50">
+        <f>B27+1</f>
+        <v>42847</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="41"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42848</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="50">
+        <f>B32+1</f>
+        <v>42848</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="41"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42849</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42849</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="50">
+        <f>B37+1</f>
+        <v>42849</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42850</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="50">
+        <f>B44+1</f>
+        <v>42850</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42851</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="50">
+        <f>B49+1</f>
+        <v>42851</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="41"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42852</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="50">
+        <f>B54+1</f>
+        <v>42852</v>
+      </c>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="41"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42853</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="50">
+        <f>B59+1</f>
+        <v>42853</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="41"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42854</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="50">
+        <f>B64+1</f>
+        <v>42854</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42855</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="50">
+        <f>B69+1</f>
+        <v>42855</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -2910,6 +3919,18 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week 12-13" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -120,9 +120,6 @@
     <t>公安一所日日顺无纸化签到司法鉴定交流沟通</t>
   </si>
   <si>
-    <t>叫做银行优质员工贷实施工作</t>
-  </si>
-  <si>
     <t>顺丰电子报聘解决方案编制</t>
   </si>
   <si>
@@ -134,20 +131,36 @@
   <si>
     <t>工商全程电子化解决方案评审</t>
   </si>
+  <si>
+    <t>焦作银行优质员工贷实施工作</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科软保险行业无纸化合作产品交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民银行无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starting:</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="178" formatCode="mmmm\ d\,\ yyyy\ \(dddd\)"/>
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="&quot;Week &quot;00"/>
-    <numFmt numFmtId="181" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="182" formatCode="dddd"/>
-    <numFmt numFmtId="183" formatCode="d"/>
+    <numFmt numFmtId="176" formatCode="mmmm\ d\,\ yyyy\ \(dddd\)"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="&quot;Week &quot;00"/>
+    <numFmt numFmtId="179" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="dddd"/>
+    <numFmt numFmtId="181" formatCode="d"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +282,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -598,12 +618,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -622,10 +642,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -641,13 +661,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -681,6 +701,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -695,21 +721,18 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1004,11 +1027,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1017,14 +1040,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1071,10 +1094,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1085,16 +1108,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="49">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1173,7 +1196,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="52">
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1213,7 +1236,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="52"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -1249,7 +1272,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -1358,7 +1381,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1376,7 +1399,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
@@ -1393,7 +1416,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -1439,7 +1462,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="52">
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1450,7 +1473,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="52"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
@@ -1458,7 +1481,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -1477,7 +1500,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="52">
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1487,14 +1510,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -1513,7 +1536,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="52">
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1523,14 +1546,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="52"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="53"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -1549,7 +1572,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="52">
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1559,14 +1582,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="52"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="53"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -1585,7 +1608,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="52">
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1595,14 +1618,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="52"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="31"/>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="53"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -1637,7 +1660,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="52">
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1647,14 +1670,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="52"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="25"/>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="53"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -1678,7 +1701,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="52">
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1688,14 +1711,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="52"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
       <c r="E50" s="33"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="53"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -1719,7 +1742,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="52">
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1729,14 +1752,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="52"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="31"/>
       <c r="D55" s="38"/>
       <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="53"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -1755,7 +1778,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="52">
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1765,14 +1788,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="52"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="31"/>
       <c r="D60" s="39"/>
       <c r="E60" s="33"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="53"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -1791,7 +1814,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="52">
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1801,14 +1824,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="31"/>
       <c r="D65" s="32"/>
       <c r="E65" s="33"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="53"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -1827,7 +1850,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="52">
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1837,14 +1860,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="52"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="31"/>
       <c r="D70" s="32"/>
       <c r="E70" s="33"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -1863,7 +1886,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="52">
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1873,20 +1896,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="52"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="31"/>
       <c r="D75" s="32"/>
       <c r="E75" s="33"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="53"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -1896,16 +1929,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1937,11 +1960,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1950,14 +1973,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2004,10 +2027,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -2018,16 +2041,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="49">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -2106,7 +2129,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="52">
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -2152,7 +2175,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="52"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -2188,7 +2211,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -2297,7 +2320,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -2321,7 +2344,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
@@ -2338,7 +2361,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -2384,7 +2407,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="52">
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -2401,7 +2424,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="52"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
@@ -2409,7 +2432,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -2428,7 +2451,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="52">
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -2444,14 +2467,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -2470,7 +2493,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="52">
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -2486,14 +2509,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="52"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="53"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2512,7 +2535,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="52">
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -2528,14 +2551,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="52"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="53"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2554,7 +2577,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="52">
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -2570,14 +2593,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="52"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="31"/>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="53"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -2612,7 +2635,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="52">
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -2628,14 +2651,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="52"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="25"/>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="53"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -2659,7 +2682,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="52">
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -2675,7 +2698,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="52"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -2688,7 +2711,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="53"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -2712,7 +2735,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="52">
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -2728,14 +2751,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="52"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="31"/>
       <c r="D55" s="38"/>
       <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="53"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -2754,7 +2777,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="52">
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -2770,14 +2793,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="52"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="31"/>
       <c r="D60" s="39"/>
       <c r="E60" s="33"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="53"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -2796,7 +2819,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="52">
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -2812,14 +2835,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="31"/>
       <c r="D65" s="32"/>
       <c r="E65" s="33"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="53"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -2838,7 +2861,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="52">
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -2848,14 +2871,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="52"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="31"/>
       <c r="D70" s="32"/>
       <c r="E70" s="33"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -2874,7 +2897,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="52">
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -2884,20 +2907,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="52"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="31"/>
       <c r="D75" s="32"/>
       <c r="E75" s="33"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="53"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -2907,16 +2940,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2933,7 +2956,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2948,11 +2971,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2961,16 +2984,16 @@
       <c r="I1" s="11"/>
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="7" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E2" s="8">
         <f>C3</f>
@@ -3015,10 +3038,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3029,16 +3052,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="49">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -3117,7 +3140,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="52">
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -3163,7 +3186,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="52"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -3199,7 +3222,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -3308,7 +3331,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -3332,10 +3355,16 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="34" t="s">
         <v>18</v>
       </c>
@@ -3349,10 +3378,16 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="34" t="s">
         <v>19</v>
       </c>
@@ -3395,38 +3430,38 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="52">
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42844</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>30</v>
+      <c r="C17" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>34</v>
       </c>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="52"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -3445,36 +3480,36 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="52">
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42845</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>30</v>
+      <c r="C22" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -3493,36 +3528,36 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="52">
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42846</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>30</v>
+      <c r="C27" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="52"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="53"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3541,7 +3576,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="52">
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -3551,14 +3586,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="52"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="53"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3577,7 +3612,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="52">
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -3587,14 +3622,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="52"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="31"/>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="53"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -3629,36 +3664,36 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="52">
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42849</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="52"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="53"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -3682,30 +3717,30 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="52">
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42850</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="52"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="27"/>
       <c r="D50" s="28"/>
       <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="53"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -3729,7 +3764,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="52">
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3739,14 +3774,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="52"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="31"/>
       <c r="D55" s="38"/>
       <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="53"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -3765,7 +3800,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="52">
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3775,14 +3810,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="52"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="31"/>
       <c r="D60" s="39"/>
       <c r="E60" s="33"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="53"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -3801,7 +3836,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="52">
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -3811,14 +3846,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="31"/>
       <c r="D65" s="32"/>
       <c r="E65" s="33"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="53"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -3837,7 +3872,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="52">
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -3847,14 +3882,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="52"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="31"/>
       <c r="D70" s="32"/>
       <c r="E70" s="33"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -3873,7 +3908,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="52">
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -3883,20 +3918,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="52"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="31"/>
       <c r="D75" s="32"/>
       <c r="E75" s="33"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="53"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -3906,16 +3951,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week 12-13" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="38">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -120,9 +120,6 @@
     <t>公安一所日日顺无纸化签到司法鉴定交流沟通</t>
   </si>
   <si>
-    <t>顺丰电子报聘解决方案编制</t>
-  </si>
-  <si>
     <t>工商全程电子化解决方案编制</t>
   </si>
   <si>
@@ -136,15 +133,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>中科软保险行业无纸化合作产品交流</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>人民银行无纸化交流</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Starting:</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议管理系统无纸化方案编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调中兴设备及开发资源</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -701,12 +702,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -730,9 +728,12 @@
     <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1027,11 +1028,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1040,14 +1041,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1094,10 +1095,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="50">
         <v>2017</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1108,16 +1109,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="51">
+      <c r="G4" s="52">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1196,7 +1197,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="45">
+      <c r="B7" s="55">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1236,7 +1237,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -1272,7 +1273,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -1381,7 +1382,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="55">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1399,7 +1400,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
@@ -1416,7 +1417,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -1462,7 +1463,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="B17" s="55">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1473,7 +1474,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
@@ -1481,7 +1482,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -1500,7 +1501,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="B22" s="55">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1510,14 +1511,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -1536,7 +1537,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="B27" s="55">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1546,14 +1547,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -1572,7 +1573,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="45">
+      <c r="B32" s="55">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1582,14 +1583,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -1608,7 +1609,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="45">
+      <c r="B37" s="55">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1618,14 +1619,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="31"/>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -1660,7 +1661,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="45">
+      <c r="B44" s="55">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1670,14 +1671,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="25"/>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -1701,7 +1702,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="45">
+      <c r="B49" s="55">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1711,14 +1712,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
       <c r="E50" s="33"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -1742,7 +1743,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="45">
+      <c r="B54" s="55">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1752,14 +1753,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="31"/>
       <c r="D55" s="38"/>
       <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -1778,7 +1779,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="45">
+      <c r="B59" s="55">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1788,14 +1789,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="31"/>
       <c r="D60" s="39"/>
       <c r="E60" s="33"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -1814,7 +1815,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="45">
+      <c r="B64" s="55">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1824,14 +1825,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="31"/>
       <c r="D65" s="32"/>
       <c r="E65" s="33"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -1850,7 +1851,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="45">
+      <c r="B69" s="55">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1860,14 +1861,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="55"/>
       <c r="C70" s="31"/>
       <c r="D70" s="32"/>
       <c r="E70" s="33"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -1886,7 +1887,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="45">
+      <c r="B74" s="55">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1896,30 +1897,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="31"/>
       <c r="D75" s="32"/>
       <c r="E75" s="33"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -1929,6 +1920,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1960,11 +1961,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1973,14 +1974,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2027,10 +2028,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="50">
         <v>2017</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -2041,16 +2042,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="51">
+      <c r="G4" s="52">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -2129,7 +2130,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="45">
+      <c r="B7" s="55">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -2175,7 +2176,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -2211,7 +2212,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -2320,7 +2321,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="55">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -2344,7 +2345,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
@@ -2361,7 +2362,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -2407,7 +2408,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="B17" s="55">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -2424,7 +2425,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
@@ -2432,7 +2433,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -2451,7 +2452,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="B22" s="55">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -2467,14 +2468,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -2493,7 +2494,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="B27" s="55">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -2509,14 +2510,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2535,7 +2536,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="45">
+      <c r="B32" s="55">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -2551,14 +2552,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2577,7 +2578,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="45">
+      <c r="B37" s="55">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -2593,14 +2594,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="31"/>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -2635,7 +2636,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="45">
+      <c r="B44" s="55">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -2651,14 +2652,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="25"/>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -2682,7 +2683,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="45">
+      <c r="B49" s="55">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -2698,7 +2699,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -2711,7 +2712,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -2735,7 +2736,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="45">
+      <c r="B54" s="55">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -2751,14 +2752,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="31"/>
       <c r="D55" s="38"/>
       <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -2777,7 +2778,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="45">
+      <c r="B59" s="55">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -2793,14 +2794,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="31"/>
       <c r="D60" s="39"/>
       <c r="E60" s="33"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -2819,7 +2820,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="45">
+      <c r="B64" s="55">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -2835,14 +2836,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="31"/>
       <c r="D65" s="32"/>
       <c r="E65" s="33"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -2861,7 +2862,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="45">
+      <c r="B69" s="55">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -2871,14 +2872,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="55"/>
       <c r="C70" s="31"/>
       <c r="D70" s="32"/>
       <c r="E70" s="33"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -2897,7 +2898,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="45">
+      <c r="B74" s="55">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -2907,30 +2908,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="31"/>
       <c r="D75" s="32"/>
       <c r="E75" s="33"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -2940,6 +2931,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2955,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2971,11 +2972,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2984,16 +2985,16 @@
       <c r="I1" s="11"/>
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="8">
         <f>C3</f>
@@ -3038,10 +3039,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="50">
         <v>2017</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3052,16 +3053,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="51">
+      <c r="G4" s="52">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -3140,7 +3141,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="45">
+      <c r="B7" s="55">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -3186,7 +3187,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -3222,7 +3223,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -3331,18 +3332,9 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="55">
         <f>B7+1</f>
         <v>42843</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -3355,16 +3347,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
-      <c r="C13" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>35</v>
-      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="47"/>
       <c r="G13" s="34" t="s">
         <v>18</v>
       </c>
@@ -3378,15 +3364,15 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
-      <c r="C14" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>36</v>
+      <c r="B14" s="56"/>
+      <c r="C14" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>34</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>19</v>
@@ -3430,38 +3416,32 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="B17" s="55">
         <f>B12+1</f>
         <v>42844</v>
       </c>
-      <c r="C17" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>34</v>
+      <c r="C17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>30</v>
-      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -3480,36 +3460,30 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="B22" s="55">
         <f>B17+1</f>
         <v>42845</v>
       </c>
-      <c r="C22" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>34</v>
+      <c r="C22" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>31</v>
-      </c>
+      <c r="B23" s="55"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -3528,36 +3502,30 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="B27" s="55">
         <f>B22+1</f>
         <v>42846</v>
       </c>
-      <c r="C27" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>34</v>
+      <c r="C27" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>31</v>
-      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3576,7 +3544,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="45">
+      <c r="B32" s="55">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -3586,14 +3554,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3612,7 +3580,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="45">
+      <c r="B37" s="55">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -3622,14 +3590,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="31"/>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -3664,36 +3632,36 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="45">
+      <c r="B44" s="55">
         <f>B37+1</f>
         <v>42849</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -3717,30 +3685,30 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="45">
+      <c r="B49" s="55">
         <f>B44+1</f>
         <v>42850</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="27"/>
       <c r="D50" s="28"/>
       <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -3764,24 +3732,30 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="45">
+      <c r="B54" s="55">
         <f>B49+1</f>
         <v>42851</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
+      <c r="C54" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="31"/>
       <c r="D55" s="38"/>
       <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -3800,24 +3774,30 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="45">
+      <c r="B59" s="55">
         <f>B54+1</f>
         <v>42852</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26"/>
+      <c r="C59" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="31"/>
       <c r="D60" s="39"/>
       <c r="E60" s="33"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -3836,24 +3816,30 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="45">
+      <c r="B64" s="55">
         <f>B59+1</f>
         <v>42853</v>
       </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="26"/>
+      <c r="C64" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="31"/>
       <c r="D65" s="32"/>
       <c r="E65" s="33"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -3872,7 +3858,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="45">
+      <c r="B69" s="55">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -3882,14 +3868,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="55"/>
       <c r="C70" s="31"/>
       <c r="D70" s="32"/>
       <c r="E70" s="33"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -3908,7 +3894,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="45">
+      <c r="B74" s="55">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -3918,30 +3904,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="31"/>
       <c r="D75" s="32"/>
       <c r="E75" s="33"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -3951,6 +3927,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Week 12-13" sheetId="5" r:id="rId1"/>
     <sheet name="Week 14-15" sheetId="6" r:id="rId2"/>
     <sheet name="Week 16-17" sheetId="7" r:id="rId3"/>
+    <sheet name="Week 18-19" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 12-13'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 14-15'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 16-17'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 18-19'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="43">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -117,7 +119,13 @@
     <t>开发部无纸化项目需求讨论</t>
   </si>
   <si>
+    <t>人民银行无纸化交流</t>
+  </si>
+  <si>
     <t>公安一所日日顺无纸化签到司法鉴定交流沟通</t>
+  </si>
+  <si>
+    <t>焦作银行优质员工贷实施工作</t>
   </si>
   <si>
     <t>工商全程电子化解决方案编制</t>
@@ -129,24 +137,34 @@
     <t>工商全程电子化解决方案评审</t>
   </si>
   <si>
-    <t>焦作银行优质员工贷实施工作</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>会议管理系统无纸化方案编制</t>
   </si>
   <si>
-    <t>人民银行无纸化交流</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>中原消费金融无纸化专访事宜</t>
   </si>
   <si>
-    <t>Starting:</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>电子发票开票、查询平台可行性分析</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>会议管理系统无纸化方案编制</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>电子发票开票、查询平台可行性分析</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>协调中兴设备及开发资源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>会议管理系统建设方案</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化产品规划和需求研讨</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>华融金交中心现场实施</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化专利研讨</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -154,14 +172,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="mmmm\ d\,\ yyyy\ \(dddd\)"/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="178" formatCode="&quot;Week &quot;00"/>
-    <numFmt numFmtId="179" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="dddd"/>
-    <numFmt numFmtId="181" formatCode="d"/>
+    <numFmt numFmtId="177" formatCode="mmmm\ d\,\ yyyy\ \(dddd\)"/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="179" formatCode="&quot;Week &quot;00"/>
+    <numFmt numFmtId="181" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="182" formatCode="dddd"/>
+    <numFmt numFmtId="183" formatCode="d"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +281,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color theme="4"/>
@@ -313,7 +337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,14 +641,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -643,10 +667,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -662,13 +686,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -679,13 +703,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
@@ -702,13 +729,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -719,21 +743,23 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1039,12 +1065,12 @@
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="49"/>
       <c r="M1" s="49"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
@@ -1064,10 +1090,10 @@
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
     </row>
@@ -1088,10 +1114,10 @@
       <c r="H3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="44">
         <v>3</v>
       </c>
-      <c r="J3" s="42"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
@@ -1150,7 +1176,7 @@
       <c r="L5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="46" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="15"/>
@@ -1202,7 +1228,7 @@
         <v>42814</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="44"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="26"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
@@ -1401,10 +1427,10 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="55"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="G13" s="34" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="G13" s="33" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="6"/>
@@ -1421,7 +1447,7 @@
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="6"/>
@@ -1435,7 +1461,7 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="6"/>
@@ -1475,9 +1501,9 @@
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1512,9 +1538,9 @@
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="55"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
@@ -1543,14 +1569,14 @@
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="33"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
@@ -1578,15 +1604,15 @@
         <v>42819</v>
       </c>
       <c r="C32" s="25"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="55"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -1613,16 +1639,16 @@
         <f>B32+1</f>
         <v>42820</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="55"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
@@ -1635,7 +1661,7 @@
       <c r="B40" s="30"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="12" t="s">
         <v>5</v>
       </c>
@@ -1666,15 +1692,15 @@
         <v>42821</v>
       </c>
       <c r="C44" s="25"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="33"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="38"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="55"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
@@ -1707,15 +1733,15 @@
         <v>42822</v>
       </c>
       <c r="C49" s="25"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="33"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
@@ -1748,15 +1774,15 @@
         <v>42823</v>
       </c>
       <c r="C54" s="25"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="33"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="38"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="55"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="33"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
@@ -1784,15 +1810,15 @@
         <v>42824</v>
       </c>
       <c r="C59" s="25"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="33"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="38"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="55"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="33"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
@@ -1821,14 +1847,14 @@
       </c>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
-      <c r="E64" s="33"/>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="55"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="33"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
@@ -1857,14 +1883,14 @@
       </c>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
-      <c r="E69" s="33"/>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="55"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="33"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
@@ -1891,16 +1917,16 @@
         <f>B69+1</f>
         <v>42827</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="33"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="55"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="33"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
@@ -1931,7 +1957,7 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
@@ -1972,12 +1998,12 @@
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="49"/>
       <c r="M1" s="49"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
@@ -1997,10 +2023,10 @@
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
     </row>
@@ -2021,10 +2047,10 @@
       <c r="H3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="44">
         <v>4</v>
       </c>
-      <c r="J3" s="42"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
@@ -2083,7 +2109,7 @@
       <c r="L5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="46" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="15"/>
@@ -2346,10 +2372,10 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="55"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="G13" s="34" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="G13" s="33" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="6"/>
@@ -2366,7 +2392,7 @@
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="6"/>
@@ -2380,7 +2406,7 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="6"/>
@@ -2426,9 +2452,9 @@
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2469,9 +2495,9 @@
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="55"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
@@ -2511,9 +2537,9 @@
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
@@ -2553,9 +2579,9 @@
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="55"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -2595,9 +2621,9 @@
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="55"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
@@ -2610,7 +2636,7 @@
       <c r="B40" s="30"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="12" t="s">
         <v>5</v>
       </c>
@@ -2654,8 +2680,8 @@
       <c r="A45" s="2"/>
       <c r="B45" s="55"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
@@ -2753,9 +2779,9 @@
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="55"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="33"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
@@ -2795,9 +2821,9 @@
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="55"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="33"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
@@ -2837,9 +2863,9 @@
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="55"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="33"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
@@ -2868,14 +2894,14 @@
       </c>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
-      <c r="E69" s="33"/>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="55"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="33"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
@@ -2902,16 +2928,16 @@
         <f>B69+1</f>
         <v>42841</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="33"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="55"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="33"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
@@ -2942,7 +2968,7 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
@@ -2956,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView showGridLines="0" topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2983,18 +3009,18 @@
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="49"/>
       <c r="M1" s="49"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E2" s="8">
         <f>C3</f>
@@ -3008,10 +3034,10 @@
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
     </row>
@@ -3032,10 +3058,10 @@
       <c r="H3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="44">
         <v>4</v>
       </c>
-      <c r="J3" s="42"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
@@ -3094,7 +3120,7 @@
       <c r="L5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="46" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="15"/>
@@ -3348,10 +3374,10 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="55"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="47"/>
-      <c r="G13" s="34" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="G13" s="33" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="6"/>
@@ -3365,16 +3391,16 @@
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="56"/>
-      <c r="C14" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="34" t="s">
+      <c r="C14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="6"/>
@@ -3388,7 +3414,7 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="6"/>
@@ -3421,13 +3447,13 @@
         <v>42844</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" s="35"/>
     </row>
@@ -3464,14 +3490,14 @@
         <f>B17+1</f>
         <v>42845</v>
       </c>
-      <c r="C22" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>33</v>
+      <c r="C22" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3506,14 +3532,14 @@
         <f>B22+1</f>
         <v>42846</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>33</v>
+      <c r="C27" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3555,9 +3581,9 @@
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="55"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -3591,9 +3617,9 @@
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="55"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
@@ -3606,7 +3632,7 @@
       <c r="B40" s="30"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="12" t="s">
         <v>5</v>
       </c>
@@ -3637,26 +3663,26 @@
         <v>42849</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="55"/>
       <c r="C45" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3690,21 +3716,21 @@
         <v>42850</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
@@ -3737,21 +3763,27 @@
         <v>42851</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="55"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="33"/>
+      <c r="C55" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="57" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
@@ -3779,21 +3811,27 @@
         <v>42852</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="55"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="33"/>
+      <c r="C60" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="57" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
@@ -3821,21 +3859,27 @@
         <v>42853</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="55"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="33"/>
+      <c r="C65" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="57" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
@@ -3864,14 +3908,14 @@
       </c>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
-      <c r="E69" s="33"/>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="55"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="33"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
@@ -3898,16 +3942,16 @@
         <f>B69+1</f>
         <v>42855</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="33"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="55"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="33"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
@@ -3938,7 +3982,976 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42856</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42856</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>18</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>5</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="50">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="51"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="52">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42856</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="24">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="24">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="55">
+        <f>E2</f>
+        <v>42856</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="56"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42857</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="55">
+        <f>B7+1</f>
+        <v>42857</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="55"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="56"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42858</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="55">
+        <f>B12+1</f>
+        <v>42858</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42859</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="55">
+        <f>B17+1</f>
+        <v>42859</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42860</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="55">
+        <f>B22+1</f>
+        <v>42860</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42861</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="55">
+        <f>B27+1</f>
+        <v>42861</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42862</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="55">
+        <f>B32+1</f>
+        <v>42862</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42863</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42863</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="55">
+        <f>B37+1</f>
+        <v>42863</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="40"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="40"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="29"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42864</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="55">
+        <f>B44+1</f>
+        <v>42864</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="38"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42865</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="55">
+        <f>B49+1</f>
+        <v>42865</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="29"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42866</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="55">
+        <f>B54+1</f>
+        <v>42866</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="29"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42867</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="23"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="55">
+        <f>B59+1</f>
+        <v>42867</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="29"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42868</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="55">
+        <f>B64+1</f>
+        <v>42868</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="38"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="29"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42869</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="23"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="55">
+        <f>B69+1</f>
+        <v>42869</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -172,12 +172,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="177" formatCode="mmmm\ d\,\ yyyy\ \(dddd\)"/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="179" formatCode="&quot;Week &quot;00"/>
-    <numFmt numFmtId="181" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="182" formatCode="dddd"/>
-    <numFmt numFmtId="183" formatCode="d"/>
+    <numFmt numFmtId="176" formatCode="mmmm\ d\,\ yyyy\ \(dddd\)"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="&quot;Week &quot;00"/>
+    <numFmt numFmtId="179" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="dddd"/>
+    <numFmt numFmtId="181" formatCode="d"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -648,7 +648,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -667,10 +667,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -686,13 +686,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -729,6 +729,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -743,23 +751,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1054,11 +1054,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1067,14 +1067,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1121,10 +1121,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="54">
         <v>2017</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1135,16 +1135,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="52">
+      <c r="G4" s="56">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="55">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="55"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -1299,7 +1299,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="56"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -1408,7 +1408,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="55">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="55"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -1443,7 +1443,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="56"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="55">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="55"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="56"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="55">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1537,14 +1537,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="55"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="56"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="55">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1573,14 +1573,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="55"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="56"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="55">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1609,14 +1609,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="55"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="56"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="55">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1645,14 +1645,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="55"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="56"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="55">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1697,14 +1697,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="55"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="56"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="55">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1738,14 +1738,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="55"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="56"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="55">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1779,14 +1779,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="55"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="56"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="55">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1815,14 +1815,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="55"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="56"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="55">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1851,14 +1851,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="55"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="56"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="55">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1887,14 +1887,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="55"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="56"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="55">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1923,20 +1923,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="55"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="56"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -1946,16 +1956,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1987,11 +1987,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2000,14 +2000,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2054,10 +2054,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="54">
         <v>2017</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -2068,16 +2068,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="52">
+      <c r="G4" s="56">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="55">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="55"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -2238,7 +2238,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="56"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -2347,7 +2347,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="55">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="55"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -2388,7 +2388,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="56"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="55">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="55"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="56"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="55">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -2494,14 +2494,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="55"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="56"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="55">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -2536,14 +2536,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="55"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="56"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="55">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -2578,14 +2578,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="55"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="56"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="55">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -2620,14 +2620,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="55"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="56"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="55">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -2678,14 +2678,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="55"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="56"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="55">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="55"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="56"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="55">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -2778,14 +2778,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="55"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="56"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="55">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -2820,14 +2820,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="55"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="56"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="55">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -2862,14 +2862,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="55"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="56"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="55">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -2898,14 +2898,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="55"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="56"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="55">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -2934,20 +2934,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="55"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="56"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -2957,16 +2967,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2998,11 +2998,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3011,14 +3011,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3065,10 +3065,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="54">
         <v>2017</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3079,16 +3079,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="52">
+      <c r="G4" s="56">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="55">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="55"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -3249,7 +3249,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="56"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -3358,7 +3358,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="55">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="55"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -3390,7 +3390,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="56"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="34" t="s">
         <v>29</v>
       </c>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="55">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="55"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="56"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="55">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -3502,14 +3502,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="55"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="56"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="55">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -3544,14 +3544,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="55"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="56"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="55">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -3580,14 +3580,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="55"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="56"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="55">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -3616,14 +3616,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="55"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="56"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="55">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="55"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="25" t="s">
         <v>33</v>
       </c>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="56"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="55">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -3727,14 +3727,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="55"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="56"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="55">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3774,20 +3774,20 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="57" t="s">
+      <c r="B55" s="50"/>
+      <c r="C55" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="57" t="s">
+      <c r="D55" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="57" t="s">
+      <c r="E55" s="48" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="56"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="55">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3822,20 +3822,20 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="57" t="s">
+      <c r="B60" s="50"/>
+      <c r="C60" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="57" t="s">
+      <c r="D60" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E60" s="57" t="s">
+      <c r="E60" s="48" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="56"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="55">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -3870,20 +3870,20 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="57" t="s">
+      <c r="B65" s="50"/>
+      <c r="C65" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="57" t="s">
+      <c r="D65" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E65" s="57" t="s">
+      <c r="E65" s="48" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="56"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="55">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -3912,14 +3912,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="55"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="56"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="55">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -3948,20 +3948,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="55"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="56"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -3971,16 +3981,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3996,8 +3996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4012,11 +4012,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -4025,14 +4025,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4079,10 +4079,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="54">
         <v>2017</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4093,16 +4093,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="52">
+      <c r="G4" s="56">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4181,17 +4181,17 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="55">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42856</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="48" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="24">
@@ -4227,14 +4227,14 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="48" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="24">
@@ -4269,7 +4269,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="56"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -4378,17 +4378,17 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="55">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42857</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="49" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="6"/>
@@ -4402,7 +4402,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="55"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -4419,7 +4419,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="56"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -4465,24 +4465,24 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="55">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42858</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="48" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="55"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="56"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -4509,30 +4509,30 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="55">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42859</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="48" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="55"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="56"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -4551,30 +4551,30 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="55">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42860</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="55"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="56"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="55">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -4603,14 +4603,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="55"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="56"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="55">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -4639,14 +4639,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="55"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="56"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="55">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -4691,14 +4691,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="55"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="56"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="55">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -4732,14 +4732,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="55"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="56"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -4763,7 +4763,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="55">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -4773,14 +4773,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="56"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="55">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -4809,14 +4809,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="56"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="55">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -4845,14 +4845,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="56"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="55">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -4881,14 +4881,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="55"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="56"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="55">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -4917,20 +4917,32 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="55"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="56"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -4938,18 +4950,6 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="46">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>无纸化专利研讨</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨消费金融无纸化交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨消费金融无纸化交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨消费金融无纸化交流</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -731,12 +743,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -758,6 +764,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,11 +1066,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1067,14 +1079,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1121,10 +1133,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="52">
         <v>2017</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1135,16 +1147,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="56">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1223,7 +1235,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="57">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1263,7 +1275,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -1299,7 +1311,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -1408,7 +1420,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="57">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1426,7 +1438,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -1443,7 +1455,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -1489,7 +1501,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="57">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1500,7 +1512,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -1508,7 +1520,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -1527,7 +1539,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="57">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1537,14 +1549,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -1563,7 +1575,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="57">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1573,14 +1585,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -1599,7 +1611,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="57">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1609,14 +1621,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -1635,7 +1647,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="57">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1645,14 +1657,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -1687,7 +1699,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="57">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1697,14 +1709,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -1728,7 +1740,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="57">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1738,14 +1750,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -1769,7 +1781,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="57">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1779,14 +1791,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -1805,7 +1817,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="57">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1815,14 +1827,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -1841,7 +1853,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="57">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1851,14 +1863,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -1877,7 +1889,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="57">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1887,14 +1899,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -1913,7 +1925,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="57">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1923,30 +1935,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -1956,6 +1958,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1987,11 +1999,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2000,14 +2012,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2054,10 +2066,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="52">
         <v>2017</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -2068,16 +2080,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="56">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -2156,7 +2168,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="57">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -2202,7 +2214,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -2238,7 +2250,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -2347,7 +2359,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="57">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -2371,7 +2383,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -2388,7 +2400,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -2434,7 +2446,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="57">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -2451,7 +2463,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -2459,7 +2471,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -2478,7 +2490,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="57">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -2494,14 +2506,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -2520,7 +2532,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="57">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -2536,14 +2548,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2562,7 +2574,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="57">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -2578,14 +2590,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2604,7 +2616,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="57">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -2620,14 +2632,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -2662,7 +2674,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="57">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -2678,14 +2690,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -2709,7 +2721,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="57">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -2725,7 +2737,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -2738,7 +2750,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -2762,7 +2774,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="57">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -2778,14 +2790,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -2804,7 +2816,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="57">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -2820,14 +2832,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -2846,7 +2858,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="57">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -2862,14 +2874,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -2888,7 +2900,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="57">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -2898,14 +2910,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -2924,7 +2936,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="57">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -2934,30 +2946,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -2967,6 +2969,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2998,11 +3010,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3011,14 +3023,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3065,10 +3077,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="52">
         <v>2017</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3079,16 +3091,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="56">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -3167,7 +3179,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="57">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -3213,7 +3225,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -3249,7 +3261,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -3358,7 +3370,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="57">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -3373,7 +3385,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -3390,7 +3402,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="34" t="s">
         <v>29</v>
       </c>
@@ -3442,7 +3454,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="57">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -3459,7 +3471,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -3467,7 +3479,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -3486,7 +3498,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="57">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -3502,14 +3514,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -3528,7 +3540,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="57">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -3544,14 +3556,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3570,7 +3582,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="57">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -3580,14 +3592,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3606,7 +3618,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="57">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -3616,14 +3628,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -3658,7 +3670,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="57">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -3674,7 +3686,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="25" t="s">
         <v>33</v>
       </c>
@@ -3687,7 +3699,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -3711,7 +3723,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="57">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -3727,14 +3739,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -3758,7 +3770,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="57">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3774,7 +3786,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="48" t="s">
         <v>37</v>
       </c>
@@ -3787,7 +3799,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -3806,7 +3818,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="57">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3822,7 +3834,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="48" t="s">
         <v>37</v>
       </c>
@@ -3835,7 +3847,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -3854,7 +3866,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="57">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -3870,7 +3882,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="48" t="s">
         <v>37</v>
       </c>
@@ -3883,7 +3895,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -3902,7 +3914,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="57">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -3912,14 +3924,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -3938,7 +3950,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="57">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -3948,30 +3960,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -3981,6 +3983,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3996,8 +4008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4012,11 +4024,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -4025,14 +4037,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4079,10 +4091,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="52">
         <v>2017</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4093,16 +4105,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="56">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4181,7 +4193,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="57">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -4227,7 +4239,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="48" t="s">
         <v>39</v>
       </c>
@@ -4269,7 +4281,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -4378,7 +4390,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="57">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -4402,7 +4414,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -4419,7 +4431,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -4465,7 +4477,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="57">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -4482,7 +4494,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -4490,7 +4502,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -4509,7 +4521,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="57">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -4525,14 +4537,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -4551,7 +4563,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="57">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -4567,14 +4579,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -4593,7 +4605,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="57">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -4603,14 +4615,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -4629,7 +4641,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="57">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -4639,14 +4651,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -4681,24 +4693,30 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="57">
         <f>B37+1</f>
         <v>42863</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="40"/>
+      <c r="C44" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -4722,7 +4740,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="57">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -4732,14 +4750,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -4763,7 +4781,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="57">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -4773,14 +4791,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
       <c r="E55" s="48"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -4799,7 +4817,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="57">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -4809,14 +4827,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="48"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -4835,7 +4853,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="57">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -4845,14 +4863,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="48"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -4871,7 +4889,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="57">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -4881,14 +4899,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -4907,7 +4925,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="57">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -4917,20 +4935,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4943,13 +4968,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
